--- a/ClearingFramework/functions/Данс.xlsx
+++ b/ClearingFramework/functions/Данс.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\Desktop\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\Documents\GitHub\ClearingFramework\ClearingFramework\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2B9D4D-0FD0-42D0-A55A-4F250A824041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91137B32-29A0-47AE-B9CF-215908916129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2685" windowWidth="24585" windowHeight="12360" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
+    <workbookView xWindow="5610" yWindow="3765" windowWidth="24585" windowHeight="12360" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>lname</t>
   </si>
@@ -62,30 +61,6 @@
   </si>
   <si>
     <t>secAcc</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
   <si>
     <t>modified</t>
@@ -581,7 +556,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,25 +601,25 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -652,19 +627,19 @@
         <v>87979</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>5798514</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -702,19 +677,19 @@
         <v>87980</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>5798514</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -752,19 +727,19 @@
         <v>87981</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>5798514</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -802,19 +777,19 @@
         <v>87982</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>5798514</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -852,19 +827,19 @@
         <v>87983</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>5798514</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -902,19 +877,19 @@
         <v>87984</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>5798514</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -952,19 +927,19 @@
         <v>87985</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>5798514</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -1002,19 +977,19 @@
         <v>87986</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>5798514</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1052,19 +1027,19 @@
         <v>87987</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>5798514</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -1102,19 +1077,19 @@
         <v>87988</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>5798514</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -1152,19 +1127,19 @@
         <v>87989</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>5798514</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
@@ -1202,19 +1177,19 @@
         <v>87990</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>5798514</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -1252,19 +1227,19 @@
         <v>87991</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>5798514</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -1302,19 +1277,19 @@
         <v>87992</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>5798514</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
@@ -1352,19 +1327,19 @@
         <v>87993</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>5798514</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
@@ -1402,19 +1377,19 @@
         <v>87994</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>5798514</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
@@ -1452,19 +1427,19 @@
         <v>87995</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>5798514</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
@@ -1502,19 +1477,19 @@
         <v>87996</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>5798514</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -1552,19 +1527,19 @@
         <v>87997</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>5798514</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
@@ -1602,19 +1577,19 @@
         <v>87998</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>5798514</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
@@ -1652,19 +1627,19 @@
         <v>87999</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>5798514</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1">
         <v>21</v>
@@ -1702,19 +1677,19 @@
         <v>88000</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>5798514</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1">
         <v>22</v>
@@ -1752,19 +1727,19 @@
         <v>88001</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>5798514</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1">
         <v>23</v>
@@ -1802,19 +1777,19 @@
         <v>88002</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>5798514</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1">
         <v>24</v>
@@ -1852,19 +1827,19 @@
         <v>88003</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>5798514</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1">
         <v>25</v>
@@ -1902,19 +1877,19 @@
         <v>88004</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>5798514</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1">
         <v>26</v>
@@ -1952,19 +1927,19 @@
         <v>88005</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>5798514</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G28" s="1">
         <v>27</v>
@@ -2002,19 +1977,19 @@
         <v>88006</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>5798514</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1">
         <v>28</v>
@@ -2052,19 +2027,19 @@
         <v>88007</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>5798514</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1">
         <v>29</v>
@@ -2102,19 +2077,19 @@
         <v>88008</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>5798514</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G31" s="1">
         <v>30</v>
@@ -2152,19 +2127,19 @@
         <v>88009</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>5798514</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1">
         <v>31</v>
@@ -2206,182 +2181,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7237224-1A99-4E35-8230-90F43AD6C5D2}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ClearingFramework/functions/Данс.xlsx
+++ b/ClearingFramework/functions/Данс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\Documents\GitHub\ClearingFramework\ClearingFramework\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91137B32-29A0-47AE-B9CF-215908916129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34142E0A-0624-40D2-BD5A-9216B53D64D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="3765" windowWidth="24585" windowHeight="12360" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
+    <workbookView xWindow="13230" yWindow="3945" windowWidth="24585" windowHeight="12360" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
   <si>
     <t>lname</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>denchinPercent</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>bankAccName</t>
+  </si>
+  <si>
+    <t>bankAccount</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8D0FF5-F7FB-46A2-BF04-B810356663A3}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,15 +573,17 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -621,8 +632,17 @@
       <c r="P1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>87979</v>
       </c>
@@ -671,8 +691,17 @@
       <c r="P2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>1232155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>87980</v>
       </c>
@@ -721,8 +750,17 @@
       <c r="P3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>54674567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>87981</v>
       </c>
@@ -771,8 +809,17 @@
       <c r="P4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>108116979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>87982</v>
       </c>
@@ -821,8 +868,17 @@
       <c r="P5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>161559391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>87983</v>
       </c>
@@ -871,8 +927,17 @@
       <c r="P6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>215001803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>87984</v>
       </c>
@@ -921,8 +986,17 @@
       <c r="P7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>268444215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>87985</v>
       </c>
@@ -971,8 +1045,17 @@
       <c r="P8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>321886627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>87986</v>
       </c>
@@ -1021,8 +1104,17 @@
       <c r="P9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>375329039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>87987</v>
       </c>
@@ -1071,8 +1163,17 @@
       <c r="P10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10">
+        <v>428771451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>87988</v>
       </c>
@@ -1121,8 +1222,17 @@
       <c r="P11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>482213863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>87989</v>
       </c>
@@ -1171,8 +1281,17 @@
       <c r="P12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>535656275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>87990</v>
       </c>
@@ -1221,8 +1340,17 @@
       <c r="P13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>589098687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>87991</v>
       </c>
@@ -1271,8 +1399,17 @@
       <c r="P14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14">
+        <v>642541099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>87992</v>
       </c>
@@ -1321,8 +1458,17 @@
       <c r="P15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <v>695983511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>87993</v>
       </c>
@@ -1371,8 +1517,17 @@
       <c r="P16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <v>749425923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>87994</v>
       </c>
@@ -1421,8 +1576,17 @@
       <c r="P17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <v>802868335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>87995</v>
       </c>
@@ -1471,8 +1635,17 @@
       <c r="P18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>856310747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>87996</v>
       </c>
@@ -1521,8 +1694,17 @@
       <c r="P19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>909753159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>87997</v>
       </c>
@@ -1571,8 +1753,17 @@
       <c r="P20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20">
+        <v>963195571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>87998</v>
       </c>
@@ -1621,8 +1812,17 @@
       <c r="P21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21">
+        <v>1016637983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87999</v>
       </c>
@@ -1671,8 +1871,17 @@
       <c r="P22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <v>1070080395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>88000</v>
       </c>
@@ -1721,8 +1930,17 @@
       <c r="P23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23">
+        <v>1123522807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88001</v>
       </c>
@@ -1771,8 +1989,17 @@
       <c r="P24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24">
+        <v>1176965219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>88002</v>
       </c>
@@ -1821,8 +2048,17 @@
       <c r="P25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25">
+        <v>1230407631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>88003</v>
       </c>
@@ -1871,8 +2107,17 @@
       <c r="P26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26">
+        <v>1283850043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88004</v>
       </c>
@@ -1921,8 +2166,17 @@
       <c r="P27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27">
+        <v>1337292455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>88005</v>
       </c>
@@ -1971,8 +2225,17 @@
       <c r="P28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>1390734867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>88006</v>
       </c>
@@ -2021,8 +2284,17 @@
       <c r="P29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29">
+        <v>1444177279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88007</v>
       </c>
@@ -2071,8 +2343,17 @@
       <c r="P30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>29</v>
+      </c>
+      <c r="R30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30">
+        <v>1497619691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>88008</v>
       </c>
@@ -2121,8 +2402,17 @@
       <c r="P31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31">
+        <v>1551062103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>88009</v>
       </c>
@@ -2170,6 +2460,15 @@
       </c>
       <c r="P32">
         <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>1604504515</v>
       </c>
     </row>
   </sheetData>

--- a/ClearingFramework/functions/Данс.xlsx
+++ b/ClearingFramework/functions/Данс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\Documents\GitHub\ClearingFramework\ClearingFramework\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34142E0A-0624-40D2-BD5A-9216B53D64D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFED69-05E6-4C77-85FD-CBB25978EE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="3945" windowWidth="24585" windowHeight="12360" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
+    <workbookView xWindow="12570" yWindow="2445" windowWidth="24585" windowHeight="13500" xr2:uid="{B4FE0422-C962-4475-929B-8BFC1E41559F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>linkAcc</t>
   </si>
   <si>
-    <t>accNum</t>
-  </si>
-  <si>
     <t>brokerCode</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>bankAccount</t>
+  </si>
+  <si>
+    <t>accId</t>
   </si>
 </sst>
 </file>
@@ -565,11 +565,12 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
@@ -585,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -606,60 +607,60 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>87979</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>5798514</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -695,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2">
         <v>1232155</v>
@@ -703,22 +704,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>87980</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>5798514</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -754,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3">
         <v>54674567</v>
@@ -762,22 +763,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>87981</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>5798514</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -813,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4">
         <v>108116979</v>
@@ -821,22 +822,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>87982</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>5798514</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -872,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5">
         <v>161559391</v>
@@ -880,22 +881,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>87983</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>5798514</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -931,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6">
         <v>215001803</v>
@@ -939,22 +940,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>87984</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>5798514</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -990,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7">
         <v>268444215</v>
@@ -998,22 +999,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>87985</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>5798514</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -1049,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8">
         <v>321886627</v>
@@ -1057,22 +1058,22 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>87986</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>5798514</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1108,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9">
         <v>375329039</v>
@@ -1116,22 +1117,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>87987</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>5798514</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -1167,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S10">
         <v>428771451</v>
@@ -1175,22 +1176,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>87988</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>5798514</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -1226,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S11">
         <v>482213863</v>
@@ -1234,22 +1235,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>87989</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>5798514</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
@@ -1285,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S12">
         <v>535656275</v>
@@ -1293,22 +1294,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>87990</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>5798514</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -1344,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13">
         <v>589098687</v>
@@ -1352,22 +1353,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>87991</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>5798514</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -1403,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="R14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S14">
         <v>642541099</v>
@@ -1411,22 +1412,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>87992</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>5798514</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
@@ -1462,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="R15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S15">
         <v>695983511</v>
@@ -1470,22 +1471,22 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>87993</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>5798514</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
@@ -1521,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="R16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S16">
         <v>749425923</v>
@@ -1529,22 +1530,22 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>87994</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>5798514</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
@@ -1580,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="R17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S17">
         <v>802868335</v>
@@ -1588,22 +1589,22 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>87995</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>5798514</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
@@ -1639,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S18">
         <v>856310747</v>
@@ -1647,22 +1648,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>87996</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>5798514</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -1698,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19">
         <v>909753159</v>
@@ -1706,22 +1707,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>87997</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>5798514</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
@@ -1757,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="R20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S20">
         <v>963195571</v>
@@ -1765,22 +1766,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>87998</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>5798514</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
@@ -1816,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21">
         <v>1016637983</v>
@@ -1824,22 +1825,22 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>87999</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>5798514</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1">
         <v>21</v>
@@ -1875,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="R22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S22">
         <v>1070080395</v>
@@ -1883,22 +1884,22 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>88000</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>5798514</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1">
         <v>22</v>
@@ -1934,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S23">
         <v>1123522807</v>
@@ -1942,22 +1943,22 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>88001</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>5798514</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
         <v>23</v>
@@ -1993,7 +1994,7 @@
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S24">
         <v>1176965219</v>
@@ -2001,22 +2002,22 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>88002</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>5798514</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1">
         <v>24</v>
@@ -2052,7 +2053,7 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S25">
         <v>1230407631</v>
@@ -2060,22 +2061,22 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>88003</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>5798514</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1">
         <v>25</v>
@@ -2111,7 +2112,7 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S26">
         <v>1283850043</v>
@@ -2119,22 +2120,22 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>88004</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>5798514</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="1">
         <v>26</v>
@@ -2170,7 +2171,7 @@
         <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>1337292455</v>
@@ -2178,22 +2179,22 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>88005</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>5798514</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1">
         <v>27</v>
@@ -2229,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="R28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S28">
         <v>1390734867</v>
@@ -2237,22 +2238,22 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>88006</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>5798514</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="1">
         <v>28</v>
@@ -2288,7 +2289,7 @@
         <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S29">
         <v>1444177279</v>
@@ -2296,22 +2297,22 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>88007</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>5798514</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1">
         <v>29</v>
@@ -2347,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="R30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S30">
         <v>1497619691</v>
@@ -2355,22 +2356,22 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>88008</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>5798514</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="1">
         <v>30</v>
@@ -2406,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S31">
         <v>1551062103</v>
@@ -2414,22 +2415,22 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>88009</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>5798514</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1">
         <v>31</v>
@@ -2465,7 +2466,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S32">
         <v>1604504515</v>
